--- a/BotManager/Data/Config.xlsx
+++ b/BotManager/Data/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RPAUser\Documents\UiPath\Bot-Manager-Framework-SQLite\BotManager\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RPAUser\Documents\UiPath\Bot-Manager-Framework-SQLite\BotManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{46F12052-B791-4577-AA7C-DED38730D6EF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2282875F-E997-42A6-8061-FC75DE15F639}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
@@ -54,55 +54,18 @@
     <t>OrchestratorName</t>
   </si>
   <si>
-    <t>Provide Robot Names to which the process can be executed. Multiple Robots should be separated by semicolon(;)
-OrchestratorName should present in 'Orchestrators' sheet</t>
-  </si>
-  <si>
-    <t>Master Queue is a centralized queue where all requests are posted</t>
-  </si>
-  <si>
     <t>logF_BusinessProcessName</t>
   </si>
   <si>
-    <t>LogMessage_Success</t>
-  </si>
-  <si>
-    <t>Transaction Processed Successfully</t>
-  </si>
-  <si>
-    <t>LogMessage_ApplicationException</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transaction Failed </t>
-  </si>
-  <si>
-    <t>LogMessage_GetTransactionDataError</t>
-  </si>
-  <si>
-    <t>Unable to get the transaction item</t>
-  </si>
-  <si>
     <t>EnvironmentName</t>
   </si>
   <si>
-    <t>Robot Work Request Dispatcher</t>
-  </si>
-  <si>
-    <t>Orch_Cred_UiPathPlatform_RakeshMS</t>
-  </si>
-  <si>
     <t>UiPathPlatform</t>
   </si>
   <si>
     <t>AceEnvironment</t>
   </si>
   <si>
-    <t>RakeshMS</t>
-  </si>
-  <si>
-    <t>GetCityLocalTime</t>
-  </si>
-  <si>
     <t>https://platform.uipath.com</t>
   </si>
   <si>
@@ -112,50 +75,274 @@
     <t>LocalMasterQueue</t>
   </si>
   <si>
-    <t>Local Database Table. This table hold Master Queue Items temporarly till robot available for processing</t>
-  </si>
-  <si>
     <t>LocalBotsTable</t>
   </si>
   <si>
+    <t>Data\MasterDB.sqlite3</t>
+  </si>
+  <si>
+    <t>SleepTime</t>
+  </si>
+  <si>
+    <t>Provide each of the Orchestrators to be used(one per row)</t>
+  </si>
+  <si>
+    <t>This local database table holds master queue items temporarly till robots are available for processing</t>
+  </si>
+  <si>
+    <t>This table holds robots and orchestrator environment mapping</t>
+  </si>
+  <si>
+    <t>Master Robot Process Name</t>
+  </si>
+  <si>
+    <t>Master queue is a centralized queue which hold queue items for all processes</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Provide Robot Names to which the process can be executed. Multiple Robots should be separated by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>semicolon(;)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+OrchestratorName should present in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>'Orchestrators'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> sheet</t>
+    </r>
+  </si>
+  <si>
     <t>Database_File</t>
   </si>
   <si>
-    <t>Data\MasterDB.sqlite3</t>
-  </si>
-  <si>
-    <t>Orchestrator credentials. It has to be in format Orch_Cred_&lt;orchestrator_Name&gt;_&lt;Tenant&gt;. The Orchestrator name should present in 'Orchestrators' sheet</t>
-  </si>
-  <si>
-    <t>Local SQLite Database File</t>
-  </si>
-  <si>
-    <t>This table hold robots mapping</t>
-  </si>
-  <si>
-    <t>SleepTime</t>
-  </si>
-  <si>
-    <t>Provide each of the Orchestrators to be used(one per row)</t>
-  </si>
-  <si>
-    <t>Bot2</t>
+    <t>AccessTokenExpiry</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If no more transactions, then master bot goes to sleep for the defined time period </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(in Millisecond)</t>
+    </r>
   </si>
   <si>
     <t>Bot1;Bot2</t>
   </si>
   <si>
-    <t>If no more transactions, then master bot goes to sleep for the defined time period (in Millisecond)</t>
-  </si>
-  <si>
-    <t>Credential_UiPathPlatform_RakeshMS</t>
+    <t>Bot1;Bot2;Bot3</t>
+  </si>
+  <si>
+    <t>Bot3</t>
+  </si>
+  <si>
+    <t>UploadInvoice</t>
+  </si>
+  <si>
+    <t>POCreation</t>
+  </si>
+  <si>
+    <t>FSTenant</t>
+  </si>
+  <si>
+    <t>Orch_Cred_UiPathPlatform_FSTenant</t>
+  </si>
+  <si>
+    <t>UiPathPlatform_FSTenant_Cred</t>
+  </si>
+  <si>
+    <r>
+      <t>Orchestrator acces token validity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in minutes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. Robot gets new access token according to the time span given in this param. 
+Note:- By default, Orchestrator access token expiry is 30 minutes, but can be changed in param 'Auth.Cookie.Expire' in orchestrator web.config. Hence 'AccessTokenExpiry' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> should be less than</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 'Auth.Cookie.Expire'.
+For multi orchestrator scenario, 'AccessTokenExpiry' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>should be less than the lowest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 'Auth.Cookie.Expire' value among all orchestrators</t>
+    </r>
+  </si>
+  <si>
+    <t>CasEnvironment</t>
+  </si>
+  <si>
+    <t>CSTenant</t>
+  </si>
+  <si>
+    <t>CASPlatform</t>
+  </si>
+  <si>
+    <t>https://demo.sampleurl.com</t>
+  </si>
+  <si>
+    <t>Orch_Cred_CASPlatform_CSTenant</t>
+  </si>
+  <si>
+    <t>CASPlatform_CSTenant_Cred</t>
+  </si>
+  <si>
+    <r>
+      <t>Orchestrator credential asset name. The credentials for each orchestrators should be maintained in separate assets.
+Param name has to be in format ' Orch_Cred_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;Orchestrator_Name&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;Tenant&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> '.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> The Orchestrator name and its URL should present in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>'Orchestrators'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> sheet. </t>
+    </r>
+  </si>
+  <si>
+    <t>Work Request Dispatcher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relative location of SQLite Database File. (Relative file path from project root directory) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -187,6 +374,17 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -209,10 +407,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -225,6 +422,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -540,19 +741,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z988"/>
+  <dimension ref="A1:Z984"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.85546875" customWidth="1"/>
-    <col min="2" max="2" width="40.28515625" customWidth="1"/>
-    <col min="3" max="3" width="82.7109375" customWidth="1"/>
+    <col min="2" max="2" width="34" customWidth="1"/>
+    <col min="3" max="3" width="109.140625" customWidth="1"/>
     <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -586,14 +787,16 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -618,97 +821,96 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:26" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>11</v>
+      <c r="C3" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>33</v>
+    <row r="4" spans="1:26" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="2">
-        <v>6000</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>40</v>
+    <row r="5" spans="1:26" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
+    <row r="6" spans="1:26" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="9">
+        <v>3000</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
+    <row r="7" spans="1:26" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="9">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>17</v>
+    <row r="8" spans="1:26" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
+      <c r="C8" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
-    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1681,10 +1883,6 @@
     <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1693,19 +1891,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B9F9B8-4026-4767-B1DD-FF2BC58FC81D}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.5703125" customWidth="1"/>
-    <col min="2" max="2" width="49.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="3" max="3" width="59.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" ht="22.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1715,20 +1913,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>26</v>
+    <row r="2" spans="1:3" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{9564EBE7-6862-4F77-9E91-96578E860D7D}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{8B30E3A7-2F1F-4528-B1A8-66FB3EF2886D}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{9E50AAC3-89DE-47C9-B0ED-0910A4EBD1AE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1736,23 +1943,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F28CC97-91B5-4502-A88D-C935C54AD315}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
     <col min="2" max="3" width="18.140625" customWidth="1"/>
     <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.140625" customWidth="1"/>
-    <col min="6" max="6" width="82.85546875" customWidth="1"/>
+    <col min="6" max="6" width="79.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1761,51 +1966,85 @@
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/BotManager/Data/Config.xlsx
+++ b/BotManager/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RPAUser\Documents\UiPath\Bot-Manager-Framework-SQLite\BotManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RPAUser\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2282875F-E997-42A6-8061-FC75DE15F639}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0A9AEEBC-D2F3-418A-BC5A-403D4D5AFBE2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Data\MasterDB.sqlite3</t>
   </si>
   <si>
-    <t>SleepTime</t>
-  </si>
-  <si>
     <t>Provide each of the Orchestrators to be used(one per row)</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
   </si>
   <si>
     <t>This table holds robots and orchestrator environment mapping</t>
-  </si>
-  <si>
-    <t>Master Robot Process Name</t>
   </si>
   <si>
     <t>Master queue is a centralized queue which hold queue items for all processes</t>
@@ -185,6 +179,47 @@
     <t>UiPathPlatform_FSTenant_Cred</t>
   </si>
   <si>
+    <t>CasEnvironment</t>
+  </si>
+  <si>
+    <t>CSTenant</t>
+  </si>
+  <si>
+    <t>CASPlatform</t>
+  </si>
+  <si>
+    <t>https://demo.sampleurl.com</t>
+  </si>
+  <si>
+    <t>Orch_Cred_CASPlatform_CSTenant</t>
+  </si>
+  <si>
+    <t>CASPlatform_CSTenant_Cred</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relative location of SQLite Database File. (Relative file path from project root directory) </t>
+  </si>
+  <si>
+    <t>HttpTimeoutMS</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Time period to wait for a request to be completed before a time-out exception </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(in Millisecond)</t>
+    </r>
+  </si>
+  <si>
+    <t>SleepTimeMS</t>
+  </si>
+  <si>
     <r>
       <t>Orchestrator acces token validity</t>
     </r>
@@ -205,7 +240,7 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">. Robot gets new access token according to the time span given in this param. 
-Note:- By default, Orchestrator access token expiry is 30 minutes, but can be changed in param 'Auth.Cookie.Expire' in orchestrator web.config. Hence 'AccessTokenExpiry' </t>
+Note:- Orchestrator maintains the access token expiry in web.config param 'Auth.Cookie.Expire'. 'AccessTokenExpiry' </t>
     </r>
     <r>
       <rPr>
@@ -223,8 +258,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> 'Auth.Cookie.Expire'.
-For multi orchestrator scenario, 'AccessTokenExpiry' </t>
+      <t xml:space="preserve"> 'Auth.Cookie.Expire'. In case of multiple orchestrator scenario, 'AccessTokenExpiry'  </t>
     </r>
     <r>
       <rPr>
@@ -233,7 +267,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>should be less than the lowest</t>
+      <t xml:space="preserve">should be less than lowest </t>
     </r>
     <r>
       <rPr>
@@ -242,31 +276,13 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> 'Auth.Cookie.Expire' value among all orchestrators</t>
-    </r>
-  </si>
-  <si>
-    <t>CasEnvironment</t>
-  </si>
-  <si>
-    <t>CSTenant</t>
-  </si>
-  <si>
-    <t>CASPlatform</t>
-  </si>
-  <si>
-    <t>https://demo.sampleurl.com</t>
-  </si>
-  <si>
-    <t>Orch_Cred_CASPlatform_CSTenant</t>
-  </si>
-  <si>
-    <t>CASPlatform_CSTenant_Cred</t>
+      <t>'Auth.Cookie.Expire' value across all orchestrators</t>
+    </r>
   </si>
   <si>
     <r>
       <t>Orchestrator credential asset name. The credentials for each orchestrators should be maintained in separate assets.
-Param name has to be in format ' Orch_Cred_</t>
+Param name has to be in format 'Orch_Cred_</t>
     </r>
     <r>
       <rPr>
@@ -301,7 +317,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> '.</t>
+      <t>'.</t>
     </r>
     <r>
       <rPr>
@@ -332,10 +348,10 @@
     </r>
   </si>
   <si>
-    <t>Work Request Dispatcher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relative location of SQLite Database File. (Relative file path from project root directory) </t>
+    <t>Hub and Spoke Framework</t>
+  </si>
+  <si>
+    <t>Process Name</t>
   </si>
 </sst>
 </file>
@@ -741,9 +757,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z984"/>
+  <dimension ref="A1:Z982"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -792,10 +810,10 @@
         <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -829,87 +847,97 @@
         <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="9">
-        <v>3000</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="9">
-        <v>10</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>37</v>
+    <row r="7" spans="1:26" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:26" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="9">
+        <v>5000</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="9" spans="1:26" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
+    <row r="10" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="9">
+        <v>5</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
+    <row r="11" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="9">
+        <v>15000</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1881,8 +1909,6 @@
     <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1921,15 +1947,15 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1978,13 +2004,13 @@
     </row>
     <row r="2" spans="1:6" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -1993,18 +2019,18 @@
         <v>13</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>32</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -2018,10 +2044,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -2035,16 +2061,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
